--- a/DD.xlsx
+++ b/DD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6BFB83-F068-40BB-BA10-3716A88281B7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513E2839-D2CB-5C4D-8243-7FFB61AF6E61}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10320" yWindow="0" windowWidth="18480" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="69">
   <si>
     <t>Funcionário</t>
   </si>
@@ -109,9 +109,6 @@
     <t>Nome</t>
   </si>
   <si>
-    <t>Int</t>
-  </si>
-  <si>
     <t>Medicamento</t>
   </si>
   <si>
@@ -206,6 +203,30 @@
   </si>
   <si>
     <t>Número de telemóvel do Funcionário</t>
+  </si>
+  <si>
+    <t>Localidade referente à morada fiscal da empresa fornecedora</t>
+  </si>
+  <si>
+    <t>Número de contacto da empresa fornecedora</t>
+  </si>
+  <si>
+    <t>Email de contacto da empresa fornecedora</t>
+  </si>
+  <si>
+    <t>Nome da empresa fornecedora</t>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+  </si>
+  <si>
+    <t>Nome do Principio Ativo</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>VARCHAR(?)</t>
   </si>
 </sst>
 </file>
@@ -475,6 +496,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -484,9 +508,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -778,19 +799,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
@@ -801,32 +822,32 @@
       <c r="G2" s="17"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
@@ -841,15 +862,15 @@
         <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -865,15 +886,15 @@
         <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
@@ -887,19 +908,21 @@
         <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
+    <row r="7" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
@@ -907,18 +930,20 @@
         <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
@@ -926,18 +951,20 @@
         <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
@@ -945,28 +972,32 @@
         <v>20</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="D10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>26</v>
       </c>
@@ -977,53 +1008,55 @@
       <c r="G12" s="17"/>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="13" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H13" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="D15" s="7" t="s">
         <v>22</v>
       </c>
@@ -1031,17 +1064,17 @@
         <v>19</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -1050,122 +1083,132 @@
       <c r="G17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="13" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H18" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -1174,30 +1217,30 @@
       <c r="G25" s="17"/>
       <c r="H25" s="18"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="13" t="s">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H26" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H26" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
@@ -1209,16 +1252,16 @@
         <v>19</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
@@ -1231,52 +1274,68 @@
         <v>20</v>
       </c>
       <c r="G28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G29" s="1"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G30" s="1"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="E31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="1"/>
+      <c r="F31" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G31" s="1"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
@@ -1285,13 +1344,15 @@
       <c r="E32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="1"/>
+      <c r="F32" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7" t="s">
@@ -1300,12 +1361,14 @@
       <c r="E33" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G33" s="7"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="s">
         <v>0</v>
       </c>
@@ -1316,111 +1379,147 @@
       <c r="G35" s="17"/>
       <c r="H35" s="18"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="13" t="s">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G37" s="1"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G39" s="1"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G41" s="1"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G42" s="7"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
@@ -1429,105 +1528,145 @@
       <c r="G44" s="17"/>
       <c r="H44" s="18"/>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="13" t="s">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F45" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="14" t="s">
+      <c r="G45" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H45" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H45" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G46" s="1"/>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G47" s="1"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G48" s="1"/>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G49" s="1"/>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G50" s="1"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G51" s="1"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
+      <c r="D52" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="E52" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F52" s="7"/>
+      <c r="F52" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G52" s="7" t="s">
         <v>20</v>
       </c>
